--- a/ontwikkeling/concept 5.1.1/tabellen/objecten-classic/NLCS-OBJECTEN-IW-5.1.xlsx
+++ b/ontwikkeling/concept 5.1.1/tabellen/objecten-classic/NLCS-OBJECTEN-IW-5.1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/elisabeth_devries_crow_nl/Documents/Documents/GitHub/NLCS/ontwikkeling/concept 5.1.1/tabellen/objecten-classic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{15756C4F-B6D1-46E7-A4A6-52C80EFE4799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375890D1-8223-431C-8988-228EBC10E6D6}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{15756C4F-B6D1-46E7-A4A6-52C80EFE4799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3110FB91-F5E6-4350-B922-91F7FD51E33B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="38700" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25905" yWindow="3390" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BG$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BG$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="213">
   <si>
     <t>OMSCHRIJVING</t>
   </si>
@@ -206,9 +206,6 @@
     <t>IW</t>
   </si>
   <si>
-    <t>V-SIW-TRAMSIGNALERING_PAAL-SO</t>
-  </si>
-  <si>
     <t>0.18</t>
   </si>
   <si>
@@ -227,21 +224,12 @@
     <t>http://digitalbuildingdata.tech/nlcs/def/1ff36128-fddc-41ee-b1ea-212f670d1e79</t>
   </si>
   <si>
-    <t>SIW-TRAMSIGNALERING_PAAL-SO</t>
-  </si>
-  <si>
     <t>TRAMSIGNALERING_PORTAAL</t>
   </si>
   <si>
-    <t>V-SIW-TRAMSIGNALERING_DRAAGCONSTRUCTIE_PORTAAL-SO</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/f06f5f5c-859b-4c76-a58e-89f73b5a14ec</t>
   </si>
   <si>
-    <t>SIW-TRAMSIGNALERING_DRAAGCONSTRUCTIE_PORTAAL-SO</t>
-  </si>
-  <si>
     <t>VRI_POLLER</t>
   </si>
   <si>
@@ -684,6 +672,12 @@
   </si>
   <si>
     <t>*-**-IW-VS_DRAAGCONSTRUCTIE</t>
+  </si>
+  <si>
+    <t>SIW-TRAMSIGNALERING_DRAAGCONSTRUCTIE_PORTAAL</t>
+  </si>
+  <si>
+    <t>SIW-TRAMSIGNALERING_PAAL</t>
   </si>
 </sst>
 </file>
@@ -743,6 +737,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG37"/>
+  <dimension ref="A1:BG35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+      <selection activeCell="N9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1211,7 @@
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -1234,13 +1232,13 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Z2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA2">
         <v>160</v>
@@ -1258,10 +1256,10 @@
         <v>253</v>
       </c>
       <c r="AF2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH2">
         <v>160</v>
@@ -1279,10 +1277,10 @@
         <v>253</v>
       </c>
       <c r="AM2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO2">
         <v>160</v>
@@ -1300,10 +1298,10 @@
         <v>253</v>
       </c>
       <c r="AT2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AU2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV2">
         <v>160</v>
@@ -1321,18 +1319,18 @@
         <v>253</v>
       </c>
       <c r="BA2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD2">
         <v>2648</v>
       </c>
       <c r="BF2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -1353,19 +1351,19 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Z3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA3">
         <v>160</v>
@@ -1383,10 +1381,10 @@
         <v>253</v>
       </c>
       <c r="AF3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH3">
         <v>160</v>
@@ -1404,10 +1402,10 @@
         <v>253</v>
       </c>
       <c r="AM3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO3">
         <v>160</v>
@@ -1425,10 +1423,10 @@
         <v>253</v>
       </c>
       <c r="AT3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AU3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV3">
         <v>160</v>
@@ -1446,7 +1444,7 @@
         <v>253</v>
       </c>
       <c r="BA3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD3">
         <v>2649</v>
@@ -1455,15 +1453,15 @@
         <v>2648</v>
       </c>
       <c r="BF3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="BG3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -1484,19 +1482,19 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Z4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA4">
         <v>170</v>
@@ -1514,10 +1512,10 @@
         <v>253</v>
       </c>
       <c r="AF4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AG4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH4">
         <v>170</v>
@@ -1535,10 +1533,10 @@
         <v>253</v>
       </c>
       <c r="AM4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AN4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO4">
         <v>170</v>
@@ -1556,10 +1554,10 @@
         <v>253</v>
       </c>
       <c r="AT4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AU4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV4">
         <v>170</v>
@@ -1577,7 +1575,7 @@
         <v>253</v>
       </c>
       <c r="BA4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BD4">
         <v>1389</v>
@@ -1586,15 +1584,15 @@
         <v>2648</v>
       </c>
       <c r="BF4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BG4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -1615,16 +1613,16 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Z5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA5">
         <v>160</v>
@@ -1642,10 +1640,10 @@
         <v>253</v>
       </c>
       <c r="AF5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH5">
         <v>160</v>
@@ -1663,10 +1661,10 @@
         <v>253</v>
       </c>
       <c r="AM5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO5">
         <v>160</v>
@@ -1684,10 +1682,10 @@
         <v>253</v>
       </c>
       <c r="AT5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AU5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV5">
         <v>160</v>
@@ -1705,18 +1703,18 @@
         <v>253</v>
       </c>
       <c r="BA5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD5">
         <v>2642</v>
       </c>
       <c r="BF5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1737,19 +1735,19 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Z6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA6">
         <v>160</v>
@@ -1767,10 +1765,10 @@
         <v>253</v>
       </c>
       <c r="AF6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH6">
         <v>160</v>
@@ -1788,10 +1786,10 @@
         <v>253</v>
       </c>
       <c r="AM6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO6">
         <v>160</v>
@@ -1809,10 +1807,10 @@
         <v>253</v>
       </c>
       <c r="AT6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AU6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV6">
         <v>160</v>
@@ -1830,7 +1828,7 @@
         <v>253</v>
       </c>
       <c r="BA6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD6">
         <v>2643</v>
@@ -1839,15 +1837,15 @@
         <v>2642</v>
       </c>
       <c r="BF6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BG6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -1868,13 +1866,13 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Z7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA7">
         <v>80</v>
@@ -1892,10 +1890,10 @@
         <v>253</v>
       </c>
       <c r="AF7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH7">
         <v>80</v>
@@ -1913,10 +1911,10 @@
         <v>253</v>
       </c>
       <c r="AM7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO7">
         <v>80</v>
@@ -1934,10 +1932,10 @@
         <v>253</v>
       </c>
       <c r="AT7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AU7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV7">
         <v>80</v>
@@ -1955,18 +1953,18 @@
         <v>253</v>
       </c>
       <c r="BA7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD7">
         <v>2653</v>
       </c>
       <c r="BF7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -1987,16 +1985,16 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Z8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA8">
         <v>7</v>
@@ -2014,52 +2012,52 @@
         <v>253</v>
       </c>
       <c r="AF8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH8">
+        <v>7</v>
+      </c>
+      <c r="AI8">
+        <v>7</v>
+      </c>
+      <c r="AJ8">
+        <v>7</v>
+      </c>
+      <c r="AK8">
+        <v>7</v>
+      </c>
+      <c r="AL8">
+        <v>253</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO8">
+        <v>7</v>
+      </c>
+      <c r="AP8">
+        <v>7</v>
+      </c>
+      <c r="AQ8">
+        <v>7</v>
+      </c>
+      <c r="AR8">
+        <v>7</v>
+      </c>
+      <c r="AS8">
+        <v>253</v>
+      </c>
+      <c r="AT8" t="s">
         <v>58</v>
       </c>
-      <c r="AH8">
-        <v>7</v>
-      </c>
-      <c r="AI8">
-        <v>7</v>
-      </c>
-      <c r="AJ8">
-        <v>7</v>
-      </c>
-      <c r="AK8">
-        <v>7</v>
-      </c>
-      <c r="AL8">
-        <v>253</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO8">
-        <v>7</v>
-      </c>
-      <c r="AP8">
-        <v>7</v>
-      </c>
-      <c r="AQ8">
-        <v>7</v>
-      </c>
-      <c r="AR8">
-        <v>7</v>
-      </c>
-      <c r="AS8">
-        <v>253</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>59</v>
-      </c>
       <c r="AU8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV8">
         <v>7</v>
@@ -2077,13 +2075,13 @@
         <v>253</v>
       </c>
       <c r="BA8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD8">
         <v>3352</v>
       </c>
       <c r="BF8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
@@ -2109,23 +2107,23 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="X9" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z9" t="s">
         <v>55</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>56</v>
-      </c>
       <c r="AA9">
         <v>7</v>
       </c>
@@ -2142,52 +2140,52 @@
         <v>253</v>
       </c>
       <c r="AF9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH9">
+        <v>7</v>
+      </c>
+      <c r="AI9">
+        <v>7</v>
+      </c>
+      <c r="AJ9">
+        <v>7</v>
+      </c>
+      <c r="AK9">
+        <v>7</v>
+      </c>
+      <c r="AL9">
+        <v>253</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO9">
+        <v>7</v>
+      </c>
+      <c r="AP9">
+        <v>7</v>
+      </c>
+      <c r="AQ9">
+        <v>7</v>
+      </c>
+      <c r="AR9">
+        <v>7</v>
+      </c>
+      <c r="AS9">
+        <v>253</v>
+      </c>
+      <c r="AT9" t="s">
         <v>58</v>
       </c>
-      <c r="AH9">
-        <v>7</v>
-      </c>
-      <c r="AI9">
-        <v>7</v>
-      </c>
-      <c r="AJ9">
-        <v>7</v>
-      </c>
-      <c r="AK9">
-        <v>7</v>
-      </c>
-      <c r="AL9">
-        <v>253</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO9">
-        <v>7</v>
-      </c>
-      <c r="AP9">
-        <v>7</v>
-      </c>
-      <c r="AQ9">
-        <v>7</v>
-      </c>
-      <c r="AR9">
-        <v>7</v>
-      </c>
-      <c r="AS9">
-        <v>253</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>59</v>
-      </c>
       <c r="AU9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV9">
         <v>7</v>
@@ -2205,7 +2203,7 @@
         <v>253</v>
       </c>
       <c r="BA9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD9">
         <v>3353</v>
@@ -2214,15 +2212,15 @@
         <v>3352</v>
       </c>
       <c r="BF9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG9" t="s">
         <v>60</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -2243,22 +2241,22 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="X10" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Z10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA10">
         <v>7</v>
@@ -2276,52 +2274,52 @@
         <v>253</v>
       </c>
       <c r="AF10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH10">
+        <v>7</v>
+      </c>
+      <c r="AI10">
+        <v>7</v>
+      </c>
+      <c r="AJ10">
+        <v>7</v>
+      </c>
+      <c r="AK10">
+        <v>7</v>
+      </c>
+      <c r="AL10">
+        <v>253</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO10">
+        <v>7</v>
+      </c>
+      <c r="AP10">
+        <v>7</v>
+      </c>
+      <c r="AQ10">
+        <v>7</v>
+      </c>
+      <c r="AR10">
+        <v>7</v>
+      </c>
+      <c r="AS10">
+        <v>253</v>
+      </c>
+      <c r="AT10" t="s">
         <v>58</v>
       </c>
-      <c r="AH10">
-        <v>7</v>
-      </c>
-      <c r="AI10">
-        <v>7</v>
-      </c>
-      <c r="AJ10">
-        <v>7</v>
-      </c>
-      <c r="AK10">
-        <v>7</v>
-      </c>
-      <c r="AL10">
-        <v>253</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO10">
-        <v>7</v>
-      </c>
-      <c r="AP10">
-        <v>7</v>
-      </c>
-      <c r="AQ10">
-        <v>7</v>
-      </c>
-      <c r="AR10">
-        <v>7</v>
-      </c>
-      <c r="AS10">
-        <v>253</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>59</v>
-      </c>
       <c r="AU10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV10">
         <v>7</v>
@@ -2339,24 +2337,24 @@
         <v>253</v>
       </c>
       <c r="BA10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD10">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="BE10">
         <v>3352</v>
       </c>
       <c r="BF10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BG10" t="s">
         <v>60</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -2377,85 +2375,79 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Z11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA11">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="AB11">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="AC11">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="AD11">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="AE11">
         <v>253</v>
       </c>
       <c r="AF11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH11">
+        <v>7</v>
+      </c>
+      <c r="AI11">
+        <v>7</v>
+      </c>
+      <c r="AJ11">
+        <v>7</v>
+      </c>
+      <c r="AK11">
+        <v>7</v>
+      </c>
+      <c r="AL11">
+        <v>253</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO11">
+        <v>7</v>
+      </c>
+      <c r="AP11">
+        <v>7</v>
+      </c>
+      <c r="AQ11">
+        <v>7</v>
+      </c>
+      <c r="AR11">
+        <v>7</v>
+      </c>
+      <c r="AS11">
+        <v>253</v>
+      </c>
+      <c r="AT11" t="s">
         <v>58</v>
       </c>
-      <c r="AH11">
-        <v>7</v>
-      </c>
-      <c r="AI11">
-        <v>7</v>
-      </c>
-      <c r="AJ11">
-        <v>7</v>
-      </c>
-      <c r="AK11">
-        <v>7</v>
-      </c>
-      <c r="AL11">
-        <v>253</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO11">
-        <v>7</v>
-      </c>
-      <c r="AP11">
-        <v>7</v>
-      </c>
-      <c r="AQ11">
-        <v>7</v>
-      </c>
-      <c r="AR11">
-        <v>7</v>
-      </c>
-      <c r="AS11">
-        <v>253</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>59</v>
-      </c>
       <c r="AU11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV11">
         <v>7</v>
@@ -2473,24 +2465,18 @@
         <v>253</v>
       </c>
       <c r="BA11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD11">
-        <v>3354</v>
-      </c>
-      <c r="BE11">
-        <v>3352</v>
+        <v>2644</v>
       </c>
       <c r="BF11" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -2511,120 +2497,114 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
-      </c>
-      <c r="X12" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA12">
+        <v>200</v>
+      </c>
+      <c r="AB12">
+        <v>202</v>
+      </c>
+      <c r="AC12">
+        <v>200</v>
+      </c>
+      <c r="AD12">
+        <v>200</v>
+      </c>
+      <c r="AE12">
+        <v>253</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH12">
+        <v>7</v>
+      </c>
+      <c r="AI12">
+        <v>7</v>
+      </c>
+      <c r="AJ12">
+        <v>7</v>
+      </c>
+      <c r="AK12">
+        <v>7</v>
+      </c>
+      <c r="AL12">
+        <v>253</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO12">
+        <v>7</v>
+      </c>
+      <c r="AP12">
+        <v>7</v>
+      </c>
+      <c r="AQ12">
+        <v>7</v>
+      </c>
+      <c r="AR12">
+        <v>7</v>
+      </c>
+      <c r="AS12">
+        <v>253</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV12">
+        <v>7</v>
+      </c>
+      <c r="AW12">
+        <v>7</v>
+      </c>
+      <c r="AX12">
+        <v>7</v>
+      </c>
+      <c r="AY12">
+        <v>7</v>
+      </c>
+      <c r="AZ12">
+        <v>253</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE12">
+        <v>2644</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG12" t="s">
         <v>66</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA12">
-        <v>7</v>
-      </c>
-      <c r="AB12">
-        <v>7</v>
-      </c>
-      <c r="AC12">
-        <v>7</v>
-      </c>
-      <c r="AD12">
-        <v>7</v>
-      </c>
-      <c r="AE12">
-        <v>253</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH12">
-        <v>7</v>
-      </c>
-      <c r="AI12">
-        <v>7</v>
-      </c>
-      <c r="AJ12">
-        <v>7</v>
-      </c>
-      <c r="AK12">
-        <v>7</v>
-      </c>
-      <c r="AL12">
-        <v>253</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO12">
-        <v>7</v>
-      </c>
-      <c r="AP12">
-        <v>7</v>
-      </c>
-      <c r="AQ12">
-        <v>7</v>
-      </c>
-      <c r="AR12">
-        <v>7</v>
-      </c>
-      <c r="AS12">
-        <v>253</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV12">
-        <v>7</v>
-      </c>
-      <c r="AW12">
-        <v>7</v>
-      </c>
-      <c r="AX12">
-        <v>7</v>
-      </c>
-      <c r="AY12">
-        <v>7</v>
-      </c>
-      <c r="AZ12">
-        <v>253</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD12">
-        <v>3354</v>
-      </c>
-      <c r="BE12">
-        <v>3352</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -2645,16 +2625,19 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>162</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Z13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA13">
         <v>200</v>
@@ -2672,52 +2655,52 @@
         <v>253</v>
       </c>
       <c r="AF13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH13">
+        <v>7</v>
+      </c>
+      <c r="AI13">
+        <v>7</v>
+      </c>
+      <c r="AJ13">
+        <v>7</v>
+      </c>
+      <c r="AK13">
+        <v>7</v>
+      </c>
+      <c r="AL13">
+        <v>253</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO13">
+        <v>7</v>
+      </c>
+      <c r="AP13">
+        <v>7</v>
+      </c>
+      <c r="AQ13">
+        <v>7</v>
+      </c>
+      <c r="AR13">
+        <v>7</v>
+      </c>
+      <c r="AS13">
+        <v>253</v>
+      </c>
+      <c r="AT13" t="s">
         <v>58</v>
       </c>
-      <c r="AH13">
-        <v>7</v>
-      </c>
-      <c r="AI13">
-        <v>7</v>
-      </c>
-      <c r="AJ13">
-        <v>7</v>
-      </c>
-      <c r="AK13">
-        <v>7</v>
-      </c>
-      <c r="AL13">
-        <v>253</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO13">
-        <v>7</v>
-      </c>
-      <c r="AP13">
-        <v>7</v>
-      </c>
-      <c r="AQ13">
-        <v>7</v>
-      </c>
-      <c r="AR13">
-        <v>7</v>
-      </c>
-      <c r="AS13">
-        <v>253</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>59</v>
-      </c>
       <c r="AU13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV13">
         <v>7</v>
@@ -2735,18 +2718,21 @@
         <v>253</v>
       </c>
       <c r="BA13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD13">
+        <v>56</v>
+      </c>
+      <c r="BE13">
         <v>2644</v>
       </c>
       <c r="BF13" t="s">
-        <v>70</v>
+        <v>104</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -2767,19 +2753,19 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Z14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA14">
         <v>200</v>
@@ -2797,10 +2783,10 @@
         <v>253</v>
       </c>
       <c r="AF14" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="AG14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH14">
         <v>7</v>
@@ -2818,10 +2804,10 @@
         <v>253</v>
       </c>
       <c r="AM14" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO14">
         <v>7</v>
@@ -2839,10 +2825,10 @@
         <v>253</v>
       </c>
       <c r="AT14" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AU14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV14">
         <v>7</v>
@@ -2860,21 +2846,21 @@
         <v>253</v>
       </c>
       <c r="BA14" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="BE14">
         <v>2644</v>
       </c>
       <c r="BF14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="BG14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -2895,19 +2881,25 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
         <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Z15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA15">
         <v>200</v>
@@ -2925,84 +2917,81 @@
         <v>253</v>
       </c>
       <c r="AF15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH15">
+        <v>170</v>
+      </c>
+      <c r="AI15">
+        <v>172</v>
+      </c>
+      <c r="AJ15">
+        <v>170</v>
+      </c>
+      <c r="AK15">
+        <v>170</v>
+      </c>
+      <c r="AL15">
+        <v>253</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO15">
+        <v>170</v>
+      </c>
+      <c r="AP15">
+        <v>172</v>
+      </c>
+      <c r="AQ15">
+        <v>170</v>
+      </c>
+      <c r="AR15">
+        <v>170</v>
+      </c>
+      <c r="AS15">
+        <v>253</v>
+      </c>
+      <c r="AT15" t="s">
         <v>58</v>
       </c>
-      <c r="AH15">
-        <v>7</v>
-      </c>
-      <c r="AI15">
-        <v>7</v>
-      </c>
-      <c r="AJ15">
-        <v>7</v>
-      </c>
-      <c r="AK15">
-        <v>7</v>
-      </c>
-      <c r="AL15">
-        <v>253</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO15">
-        <v>7</v>
-      </c>
-      <c r="AP15">
-        <v>7</v>
-      </c>
-      <c r="AQ15">
-        <v>7</v>
-      </c>
-      <c r="AR15">
-        <v>7</v>
-      </c>
-      <c r="AS15">
-        <v>253</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>59</v>
-      </c>
       <c r="AU15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV15">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AW15">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AX15">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AY15">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AZ15">
         <v>253</v>
       </c>
       <c r="BA15" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE15">
-        <v>2644</v>
+        <v>56</v>
       </c>
       <c r="BF15" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="BG15" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -3023,19 +3012,31 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA16">
         <v>200</v>
@@ -3053,84 +3054,81 @@
         <v>253</v>
       </c>
       <c r="AF16" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="AG16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH16">
+        <v>170</v>
+      </c>
+      <c r="AI16">
+        <v>172</v>
+      </c>
+      <c r="AJ16">
+        <v>170</v>
+      </c>
+      <c r="AK16">
+        <v>170</v>
+      </c>
+      <c r="AL16">
+        <v>253</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO16">
+        <v>170</v>
+      </c>
+      <c r="AP16">
+        <v>172</v>
+      </c>
+      <c r="AQ16">
+        <v>170</v>
+      </c>
+      <c r="AR16">
+        <v>170</v>
+      </c>
+      <c r="AS16">
+        <v>253</v>
+      </c>
+      <c r="AT16" t="s">
         <v>58</v>
       </c>
-      <c r="AH16">
-        <v>7</v>
-      </c>
-      <c r="AI16">
-        <v>7</v>
-      </c>
-      <c r="AJ16">
-        <v>7</v>
-      </c>
-      <c r="AK16">
-        <v>7</v>
-      </c>
-      <c r="AL16">
-        <v>253</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO16">
-        <v>7</v>
-      </c>
-      <c r="AP16">
-        <v>7</v>
-      </c>
-      <c r="AQ16">
-        <v>7</v>
-      </c>
-      <c r="AR16">
-        <v>7</v>
-      </c>
-      <c r="AS16">
-        <v>253</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>105</v>
-      </c>
       <c r="AU16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AW16">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="AX16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AY16">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="AZ16">
         <v>253</v>
       </c>
       <c r="BA16" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE16">
-        <v>2644</v>
+        <v>56</v>
       </c>
       <c r="BF16" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="BG16" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -3151,25 +3149,25 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s">
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA17">
         <v>200</v>
@@ -3187,10 +3185,10 @@
         <v>253</v>
       </c>
       <c r="AF17" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="AG17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH17">
         <v>170</v>
@@ -3208,10 +3206,10 @@
         <v>253</v>
       </c>
       <c r="AM17" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO17">
         <v>170</v>
@@ -3229,10 +3227,10 @@
         <v>253</v>
       </c>
       <c r="AT17" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="AU17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV17">
         <v>170</v>
@@ -3250,18 +3248,18 @@
         <v>253</v>
       </c>
       <c r="BA17" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="BF17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BG17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -3282,123 +3280,120 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s">
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" t="s">
-        <v>173</v>
-      </c>
-      <c r="M18" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" t="s">
-        <v>180</v>
+        <v>159</v>
+      </c>
+      <c r="X18" t="s">
+        <v>68</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Z18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA18">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AB18">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="AC18">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="AD18">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="AE18">
         <v>253</v>
       </c>
       <c r="AF18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH18">
+        <v>160</v>
+      </c>
+      <c r="AI18">
+        <v>162</v>
+      </c>
+      <c r="AJ18">
+        <v>7</v>
+      </c>
+      <c r="AK18">
+        <v>7</v>
+      </c>
+      <c r="AL18">
+        <v>253</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO18">
+        <v>160</v>
+      </c>
+      <c r="AP18">
+        <v>162</v>
+      </c>
+      <c r="AQ18">
+        <v>7</v>
+      </c>
+      <c r="AR18">
+        <v>7</v>
+      </c>
+      <c r="AS18">
+        <v>253</v>
+      </c>
+      <c r="AT18" t="s">
         <v>58</v>
       </c>
-      <c r="AH18">
-        <v>170</v>
-      </c>
-      <c r="AI18">
-        <v>172</v>
-      </c>
-      <c r="AJ18">
-        <v>170</v>
-      </c>
-      <c r="AK18">
-        <v>170</v>
-      </c>
-      <c r="AL18">
-        <v>253</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO18">
-        <v>170</v>
-      </c>
-      <c r="AP18">
-        <v>172</v>
-      </c>
-      <c r="AQ18">
-        <v>170</v>
-      </c>
-      <c r="AR18">
-        <v>170</v>
-      </c>
-      <c r="AS18">
-        <v>253</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>59</v>
-      </c>
       <c r="AU18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV18">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AW18">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AX18">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AY18">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AZ18">
         <v>253</v>
       </c>
       <c r="BA18" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="BD18">
+        <v>2645</v>
+      </c>
+      <c r="BE18">
+        <v>2644</v>
       </c>
       <c r="BF18" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="BG18" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -3419,117 +3414,123 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
         <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA19">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AB19">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="AC19">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="AD19">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="AE19">
         <v>253</v>
       </c>
       <c r="AF19" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="AG19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH19">
+        <v>160</v>
+      </c>
+      <c r="AI19">
+        <v>162</v>
+      </c>
+      <c r="AJ19">
+        <v>7</v>
+      </c>
+      <c r="AK19">
+        <v>7</v>
+      </c>
+      <c r="AL19">
+        <v>253</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO19">
+        <v>160</v>
+      </c>
+      <c r="AP19">
+        <v>162</v>
+      </c>
+      <c r="AQ19">
+        <v>7</v>
+      </c>
+      <c r="AR19">
+        <v>7</v>
+      </c>
+      <c r="AS19">
+        <v>253</v>
+      </c>
+      <c r="AT19" t="s">
         <v>58</v>
       </c>
-      <c r="AH19">
-        <v>170</v>
-      </c>
-      <c r="AI19">
-        <v>172</v>
-      </c>
-      <c r="AJ19">
-        <v>170</v>
-      </c>
-      <c r="AK19">
-        <v>170</v>
-      </c>
-      <c r="AL19">
-        <v>253</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO19">
-        <v>170</v>
-      </c>
-      <c r="AP19">
-        <v>172</v>
-      </c>
-      <c r="AQ19">
-        <v>170</v>
-      </c>
-      <c r="AR19">
-        <v>170</v>
-      </c>
-      <c r="AS19">
-        <v>253</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>105</v>
-      </c>
       <c r="AU19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV19">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AW19">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AX19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AY19">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="AZ19">
         <v>253</v>
       </c>
       <c r="BA19" t="s">
-        <v>104</v>
+        <v>56</v>
+      </c>
+      <c r="BD19">
+        <v>3505</v>
+      </c>
+      <c r="BE19">
+        <v>2645</v>
       </c>
       <c r="BF19" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="BG19" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -3550,22 +3551,25 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>163</v>
-      </c>
-      <c r="X20" t="s">
-        <v>72</v>
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Z20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA20">
         <v>160</v>
@@ -3583,10 +3587,10 @@
         <v>253</v>
       </c>
       <c r="AF20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH20">
         <v>160</v>
@@ -3604,10 +3608,10 @@
         <v>253</v>
       </c>
       <c r="AM20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AN20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO20">
         <v>160</v>
@@ -3625,10 +3629,10 @@
         <v>253</v>
       </c>
       <c r="AT20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AU20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV20">
         <v>160</v>
@@ -3646,24 +3650,24 @@
         <v>253</v>
       </c>
       <c r="BA20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD20">
+        <v>3506</v>
+      </c>
+      <c r="BE20">
         <v>2645</v>
       </c>
-      <c r="BE20">
-        <v>2644</v>
-      </c>
       <c r="BF20" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="BG20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -3684,123 +3688,117 @@
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
         <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
-      </c>
-      <c r="K21" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" t="s">
         <v>160</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA21">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AB21">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="AC21">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="AD21">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="AE21">
         <v>253</v>
       </c>
       <c r="AF21" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH21">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AI21">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AJ21">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AK21">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AL21">
         <v>253</v>
       </c>
       <c r="AM21" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="AN21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO21">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AP21">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="AQ21">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AR21">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AS21">
         <v>253</v>
       </c>
       <c r="AT21" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="AU21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV21">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AW21">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AX21">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AY21">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AZ21">
         <v>253</v>
       </c>
       <c r="BA21" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="BD21">
-        <v>3505</v>
+        <v>1409</v>
       </c>
       <c r="BE21">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="BF21" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="BG21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -3821,123 +3819,120 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s">
         <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Z22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA22">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AB22">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="AC22">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="AD22">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="AE22">
         <v>253</v>
       </c>
       <c r="AF22" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="AG22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH22">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AI22">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AJ22">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AK22">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AL22">
         <v>253</v>
       </c>
       <c r="AM22" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="AN22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO22">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AP22">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="AQ22">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AR22">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AS22">
         <v>253</v>
       </c>
       <c r="AT22" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="AU22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV22">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AW22">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AX22">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AY22">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="AZ22">
         <v>253</v>
       </c>
       <c r="BA22" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD22">
-        <v>3506</v>
+        <v>114</v>
       </c>
       <c r="BE22">
-        <v>2645</v>
+        <v>1409</v>
       </c>
       <c r="BF22" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="BG22" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -3958,19 +3953,31 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
         <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" t="s">
+        <v>171</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Z23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA23">
         <v>200</v>
@@ -3988,10 +3995,10 @@
         <v>253</v>
       </c>
       <c r="AF23" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="AG23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH23">
         <v>150</v>
@@ -4009,10 +4016,10 @@
         <v>253</v>
       </c>
       <c r="AM23" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="AN23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO23">
         <v>150</v>
@@ -4030,10 +4037,10 @@
         <v>253</v>
       </c>
       <c r="AT23" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="AU23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV23">
         <v>150</v>
@@ -4051,24 +4058,18 @@
         <v>253</v>
       </c>
       <c r="BA23" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD23">
-        <v>1409</v>
-      </c>
-      <c r="BE23">
-        <v>2644</v>
+        <v>133</v>
       </c>
       <c r="BF23" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="BG23" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -4089,25 +4090,31 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
       </c>
       <c r="J24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K24" t="s">
         <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="M24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" t="s">
+        <v>172</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Z24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA24">
         <v>200</v>
@@ -4125,10 +4132,10 @@
         <v>253</v>
       </c>
       <c r="AF24" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="AG24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH24">
         <v>150</v>
@@ -4146,10 +4153,10 @@
         <v>253</v>
       </c>
       <c r="AM24" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="AN24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO24">
         <v>150</v>
@@ -4167,10 +4174,10 @@
         <v>253</v>
       </c>
       <c r="AT24" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="AU24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV24">
         <v>150</v>
@@ -4188,21 +4195,18 @@
         <v>253</v>
       </c>
       <c r="BA24" t="s">
-        <v>118</v>
-      </c>
-      <c r="BE24">
-        <v>1409</v>
+        <v>137</v>
       </c>
       <c r="BF24" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="BG24" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
@@ -4223,31 +4227,31 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s">
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M25" t="s">
         <v>6</v>
       </c>
       <c r="N25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Z25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA25">
         <v>200</v>
@@ -4265,10 +4269,10 @@
         <v>253</v>
       </c>
       <c r="AF25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AG25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH25">
         <v>150</v>
@@ -4286,10 +4290,10 @@
         <v>253</v>
       </c>
       <c r="AM25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AN25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO25">
         <v>150</v>
@@ -4307,10 +4311,10 @@
         <v>253</v>
       </c>
       <c r="AT25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AU25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV25">
         <v>150</v>
@@ -4328,18 +4332,18 @@
         <v>253</v>
       </c>
       <c r="BA25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="BF25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="BG25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>52</v>
@@ -4360,31 +4364,25 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s">
         <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>170</v>
-      </c>
-      <c r="M26" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Z26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA26">
         <v>200</v>
@@ -4402,10 +4400,10 @@
         <v>253</v>
       </c>
       <c r="AF26" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="AG26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH26">
         <v>150</v>
@@ -4423,10 +4421,10 @@
         <v>253</v>
       </c>
       <c r="AM26" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="AN26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO26">
         <v>150</v>
@@ -4444,10 +4442,10 @@
         <v>253</v>
       </c>
       <c r="AT26" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="AU26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV26">
         <v>150</v>
@@ -4465,18 +4463,21 @@
         <v>253</v>
       </c>
       <c r="BA26" t="s">
-        <v>141</v>
+        <v>122</v>
+      </c>
+      <c r="BE26">
+        <v>1409</v>
       </c>
       <c r="BF26" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="BG26" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
@@ -4497,31 +4498,25 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s">
         <v>6</v>
       </c>
       <c r="J27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K27" t="s">
         <v>6</v>
       </c>
       <c r="L27" t="s">
-        <v>170</v>
-      </c>
-      <c r="M27" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Z27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA27">
         <v>200</v>
@@ -4539,10 +4534,10 @@
         <v>253</v>
       </c>
       <c r="AF27" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="AG27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH27">
         <v>150</v>
@@ -4560,10 +4555,10 @@
         <v>253</v>
       </c>
       <c r="AM27" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="AN27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO27">
         <v>150</v>
@@ -4581,10 +4576,10 @@
         <v>253</v>
       </c>
       <c r="AT27" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="AU27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV27">
         <v>150</v>
@@ -4602,18 +4597,21 @@
         <v>253</v>
       </c>
       <c r="BA27" t="s">
-        <v>145</v>
+        <v>118</v>
+      </c>
+      <c r="BE27">
+        <v>1409</v>
       </c>
       <c r="BF27" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="BG27" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
@@ -4634,25 +4632,31 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s">
         <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K28" t="s">
         <v>6</v>
       </c>
       <c r="L28" t="s">
-        <v>172</v>
+        <v>167</v>
+      </c>
+      <c r="M28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" t="s">
+        <v>175</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Z28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA28">
         <v>200</v>
@@ -4670,10 +4674,10 @@
         <v>253</v>
       </c>
       <c r="AF28" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH28">
         <v>150</v>
@@ -4691,10 +4695,10 @@
         <v>253</v>
       </c>
       <c r="AM28" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO28">
         <v>150</v>
@@ -4712,10 +4716,10 @@
         <v>253</v>
       </c>
       <c r="AT28" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="AU28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV28">
         <v>150</v>
@@ -4733,21 +4737,18 @@
         <v>253</v>
       </c>
       <c r="BA28" t="s">
-        <v>126</v>
-      </c>
-      <c r="BE28">
-        <v>1409</v>
+        <v>151</v>
       </c>
       <c r="BF28" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="BG28" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
         <v>52</v>
@@ -4768,25 +4769,31 @@
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I29" t="s">
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K29" t="s">
         <v>6</v>
       </c>
       <c r="L29" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="M29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" t="s">
+        <v>174</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Z29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA29">
         <v>200</v>
@@ -4804,10 +4811,10 @@
         <v>253</v>
       </c>
       <c r="AF29" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="AG29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH29">
         <v>150</v>
@@ -4825,10 +4832,10 @@
         <v>253</v>
       </c>
       <c r="AM29" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="AN29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO29">
         <v>150</v>
@@ -4846,10 +4853,10 @@
         <v>253</v>
       </c>
       <c r="AT29" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="AU29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV29">
         <v>150</v>
@@ -4867,21 +4874,18 @@
         <v>253</v>
       </c>
       <c r="BA29" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE29">
-        <v>1409</v>
+        <v>147</v>
       </c>
       <c r="BF29" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="BG29" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
@@ -4902,31 +4906,31 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s">
         <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K30" t="s">
         <v>6</v>
       </c>
       <c r="L30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M30" t="s">
         <v>6</v>
       </c>
       <c r="N30" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Z30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA30">
         <v>200</v>
@@ -4944,10 +4948,10 @@
         <v>253</v>
       </c>
       <c r="AF30" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="AG30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH30">
         <v>150</v>
@@ -4965,10 +4969,10 @@
         <v>253</v>
       </c>
       <c r="AM30" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO30">
         <v>150</v>
@@ -4986,10 +4990,10 @@
         <v>253</v>
       </c>
       <c r="AT30" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="AU30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV30">
         <v>150</v>
@@ -5007,18 +5011,18 @@
         <v>253</v>
       </c>
       <c r="BA30" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="BF30" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="BG30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>52</v>
@@ -5039,31 +5043,25 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I31" t="s">
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K31" t="s">
         <v>6</v>
       </c>
       <c r="L31" t="s">
-        <v>171</v>
-      </c>
-      <c r="M31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Z31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA31">
         <v>200</v>
@@ -5081,10 +5079,10 @@
         <v>253</v>
       </c>
       <c r="AF31" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="AG31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AH31">
         <v>150</v>
@@ -5102,10 +5100,10 @@
         <v>253</v>
       </c>
       <c r="AM31" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="AN31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AO31">
         <v>150</v>
@@ -5123,10 +5121,10 @@
         <v>253</v>
       </c>
       <c r="AT31" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="AU31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV31">
         <v>150</v>
@@ -5144,18 +5142,21 @@
         <v>253</v>
       </c>
       <c r="BA31" t="s">
-        <v>151</v>
+        <v>110</v>
+      </c>
+      <c r="BE31">
+        <v>1409</v>
       </c>
       <c r="BF31" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="BG31" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
@@ -5176,7 +5177,7 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I32" t="s">
         <v>6</v>
@@ -5184,23 +5185,11 @@
       <c r="J32" t="s">
         <v>164</v>
       </c>
-      <c r="K32" t="s">
-        <v>6</v>
-      </c>
-      <c r="L32" t="s">
-        <v>171</v>
-      </c>
-      <c r="M32" t="s">
-        <v>6</v>
-      </c>
-      <c r="N32" t="s">
-        <v>165</v>
-      </c>
       <c r="Y32" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Z32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA32">
         <v>200</v>
@@ -5218,81 +5207,84 @@
         <v>253</v>
       </c>
       <c r="AF32" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="AG32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH32">
+        <v>7</v>
+      </c>
+      <c r="AI32">
+        <v>7</v>
+      </c>
+      <c r="AJ32">
+        <v>7</v>
+      </c>
+      <c r="AK32">
+        <v>7</v>
+      </c>
+      <c r="AL32">
+        <v>253</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO32">
+        <v>7</v>
+      </c>
+      <c r="AP32">
+        <v>7</v>
+      </c>
+      <c r="AQ32">
+        <v>7</v>
+      </c>
+      <c r="AR32">
+        <v>7</v>
+      </c>
+      <c r="AS32">
+        <v>253</v>
+      </c>
+      <c r="AT32" t="s">
         <v>58</v>
       </c>
-      <c r="AH32">
-        <v>150</v>
-      </c>
-      <c r="AI32">
-        <v>152</v>
-      </c>
-      <c r="AJ32">
-        <v>150</v>
-      </c>
-      <c r="AK32">
-        <v>150</v>
-      </c>
-      <c r="AL32">
-        <v>253</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO32">
-        <v>150</v>
-      </c>
-      <c r="AP32">
-        <v>150</v>
-      </c>
-      <c r="AQ32">
-        <v>150</v>
-      </c>
-      <c r="AR32">
-        <v>150</v>
-      </c>
-      <c r="AS32">
-        <v>253</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>105</v>
-      </c>
       <c r="AU32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV32">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="AW32">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="AX32">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="AY32">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="AZ32">
         <v>253</v>
       </c>
       <c r="BA32" t="s">
-        <v>104</v>
+        <v>56</v>
+      </c>
+      <c r="BE32">
+        <v>2644</v>
       </c>
       <c r="BF32" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="BG32" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
@@ -5313,120 +5305,120 @@
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I33" t="s">
         <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>164</v>
-      </c>
-      <c r="K33" t="s">
-        <v>6</v>
-      </c>
-      <c r="L33" t="s">
-        <v>169</v>
+        <v>158</v>
+      </c>
+      <c r="X33" t="s">
+        <v>64</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Z33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA33">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="AB33">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="AC33">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="AD33">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="AE33">
         <v>253</v>
       </c>
       <c r="AF33" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="AG33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH33">
+        <v>7</v>
+      </c>
+      <c r="AI33">
+        <v>7</v>
+      </c>
+      <c r="AJ33">
+        <v>7</v>
+      </c>
+      <c r="AK33">
+        <v>7</v>
+      </c>
+      <c r="AL33">
+        <v>253</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO33">
+        <v>7</v>
+      </c>
+      <c r="AP33">
+        <v>7</v>
+      </c>
+      <c r="AQ33">
+        <v>7</v>
+      </c>
+      <c r="AR33">
+        <v>7</v>
+      </c>
+      <c r="AS33">
+        <v>253</v>
+      </c>
+      <c r="AT33" t="s">
         <v>58</v>
       </c>
-      <c r="AH33">
-        <v>150</v>
-      </c>
-      <c r="AI33">
-        <v>152</v>
-      </c>
-      <c r="AJ33">
-        <v>150</v>
-      </c>
-      <c r="AK33">
-        <v>150</v>
-      </c>
-      <c r="AL33">
-        <v>253</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO33">
-        <v>150</v>
-      </c>
-      <c r="AP33">
-        <v>150</v>
-      </c>
-      <c r="AQ33">
-        <v>150</v>
-      </c>
-      <c r="AR33">
-        <v>150</v>
-      </c>
-      <c r="AS33">
-        <v>253</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>115</v>
-      </c>
       <c r="AU33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV33">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="AW33">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="AX33">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="AY33">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="AZ33">
         <v>253</v>
       </c>
       <c r="BA33" t="s">
-        <v>114</v>
+        <v>56</v>
+      </c>
+      <c r="BD33">
+        <v>3355</v>
       </c>
       <c r="BE33">
-        <v>1409</v>
+        <v>2644</v>
       </c>
       <c r="BF33" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="BG33" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
@@ -5447,88 +5439,85 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" t="s">
-        <v>168</v>
+        <v>77</v>
+      </c>
+      <c r="X34" t="s">
+        <v>78</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Z34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA34">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AB34">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="AC34">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="AD34">
-        <v>200</v>
+        <v>7</v>
       </c>
       <c r="AE34">
         <v>253</v>
       </c>
       <c r="AF34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH34">
+        <v>160</v>
+      </c>
+      <c r="AI34">
+        <v>162</v>
+      </c>
+      <c r="AJ34">
+        <v>7</v>
+      </c>
+      <c r="AK34">
+        <v>7</v>
+      </c>
+      <c r="AL34">
+        <v>253</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO34">
+        <v>160</v>
+      </c>
+      <c r="AP34">
+        <v>162</v>
+      </c>
+      <c r="AQ34">
+        <v>7</v>
+      </c>
+      <c r="AR34">
+        <v>7</v>
+      </c>
+      <c r="AS34">
+        <v>253</v>
+      </c>
+      <c r="AT34" t="s">
         <v>58</v>
       </c>
-      <c r="AH34">
-        <v>7</v>
-      </c>
-      <c r="AI34">
-        <v>7</v>
-      </c>
-      <c r="AJ34">
-        <v>7</v>
-      </c>
-      <c r="AK34">
-        <v>7</v>
-      </c>
-      <c r="AL34">
-        <v>253</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO34">
-        <v>7</v>
-      </c>
-      <c r="AP34">
-        <v>7</v>
-      </c>
-      <c r="AQ34">
-        <v>7</v>
-      </c>
-      <c r="AR34">
-        <v>7</v>
-      </c>
-      <c r="AS34">
-        <v>253</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>59</v>
-      </c>
       <c r="AU34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV34">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="AW34">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="AX34">
         <v>7</v>
@@ -5540,21 +5529,18 @@
         <v>253</v>
       </c>
       <c r="BA34" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE34">
-        <v>2644</v>
+        <v>56</v>
+      </c>
+      <c r="BD34">
+        <v>2646</v>
       </c>
       <c r="BF34" t="s">
-        <v>112</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
@@ -5575,29 +5561,26 @@
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s">
         <v>6</v>
       </c>
       <c r="J35" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA35">
+        <v>160</v>
+      </c>
+      <c r="AB35">
         <v>162</v>
       </c>
-      <c r="X35" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA35">
-        <v>7</v>
-      </c>
-      <c r="AB35">
-        <v>7</v>
-      </c>
       <c r="AC35">
         <v>7</v>
       </c>
@@ -5608,58 +5591,58 @@
         <v>253</v>
       </c>
       <c r="AF35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH35">
+        <v>160</v>
+      </c>
+      <c r="AI35">
+        <v>162</v>
+      </c>
+      <c r="AJ35">
+        <v>7</v>
+      </c>
+      <c r="AK35">
+        <v>7</v>
+      </c>
+      <c r="AL35">
+        <v>253</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO35">
+        <v>160</v>
+      </c>
+      <c r="AP35">
+        <v>162</v>
+      </c>
+      <c r="AQ35">
+        <v>7</v>
+      </c>
+      <c r="AR35">
+        <v>7</v>
+      </c>
+      <c r="AS35">
+        <v>253</v>
+      </c>
+      <c r="AT35" t="s">
         <v>58</v>
       </c>
-      <c r="AH35">
-        <v>7</v>
-      </c>
-      <c r="AI35">
-        <v>7</v>
-      </c>
-      <c r="AJ35">
-        <v>7</v>
-      </c>
-      <c r="AK35">
-        <v>7</v>
-      </c>
-      <c r="AL35">
-        <v>253</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO35">
-        <v>7</v>
-      </c>
-      <c r="AP35">
-        <v>7</v>
-      </c>
-      <c r="AQ35">
-        <v>7</v>
-      </c>
-      <c r="AR35">
-        <v>7</v>
-      </c>
-      <c r="AS35">
-        <v>253</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>59</v>
-      </c>
       <c r="AU35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV35">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="AW35">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="AX35">
         <v>7</v>
@@ -5671,278 +5654,25 @@
         <v>253</v>
       </c>
       <c r="BA35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD35">
-        <v>3355</v>
+        <v>2647</v>
       </c>
       <c r="BE35">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="BF35" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="BG35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" t="s">
-        <v>81</v>
-      </c>
-      <c r="X36" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA36">
-        <v>160</v>
-      </c>
-      <c r="AB36">
-        <v>162</v>
-      </c>
-      <c r="AC36">
-        <v>7</v>
-      </c>
-      <c r="AD36">
-        <v>7</v>
-      </c>
-      <c r="AE36">
-        <v>253</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH36">
-        <v>160</v>
-      </c>
-      <c r="AI36">
-        <v>162</v>
-      </c>
-      <c r="AJ36">
-        <v>7</v>
-      </c>
-      <c r="AK36">
-        <v>7</v>
-      </c>
-      <c r="AL36">
-        <v>253</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO36">
-        <v>160</v>
-      </c>
-      <c r="AP36">
-        <v>162</v>
-      </c>
-      <c r="AQ36">
-        <v>7</v>
-      </c>
-      <c r="AR36">
-        <v>7</v>
-      </c>
-      <c r="AS36">
-        <v>253</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV36">
-        <v>160</v>
-      </c>
-      <c r="AW36">
-        <v>162</v>
-      </c>
-      <c r="AX36">
-        <v>7</v>
-      </c>
-      <c r="AY36">
-        <v>7</v>
-      </c>
-      <c r="AZ36">
-        <v>253</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD36">
-        <v>2646</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" t="s">
-        <v>2</v>
-      </c>
-      <c r="H37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA37">
-        <v>160</v>
-      </c>
-      <c r="AB37">
-        <v>162</v>
-      </c>
-      <c r="AC37">
-        <v>7</v>
-      </c>
-      <c r="AD37">
-        <v>7</v>
-      </c>
-      <c r="AE37">
-        <v>253</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH37">
-        <v>160</v>
-      </c>
-      <c r="AI37">
-        <v>162</v>
-      </c>
-      <c r="AJ37">
-        <v>7</v>
-      </c>
-      <c r="AK37">
-        <v>7</v>
-      </c>
-      <c r="AL37">
-        <v>253</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO37">
-        <v>160</v>
-      </c>
-      <c r="AP37">
-        <v>162</v>
-      </c>
-      <c r="AQ37">
-        <v>7</v>
-      </c>
-      <c r="AR37">
-        <v>7</v>
-      </c>
-      <c r="AS37">
-        <v>253</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV37">
-        <v>160</v>
-      </c>
-      <c r="AW37">
-        <v>162</v>
-      </c>
-      <c r="AX37">
-        <v>7</v>
-      </c>
-      <c r="AY37">
-        <v>7</v>
-      </c>
-      <c r="AZ37">
-        <v>253</v>
-      </c>
-      <c r="BA37" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD37">
-        <v>2647</v>
-      </c>
-      <c r="BE37">
-        <v>2646</v>
-      </c>
-      <c r="BF37" t="s">
-        <v>98</v>
-      </c>
-      <c r="BG37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BG114" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG114">
-      <sortCondition ref="A1:A114"/>
+  <autoFilter ref="A1:BG112" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG112">
+      <sortCondition ref="A1:A112"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
